--- a/bot de cobranças/Cobranças.xlsx
+++ b/bot de cobranças/Cobranças.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ffsou\OneDrive\Área de Trabalho\bot de cobranças\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cidirma\Desktop\Nova pasta (4)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B70E565B-85FB-407D-A7E4-B64342DDB169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0241D641-329C-4E24-8B80-439FEFFE4A33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nome do Cliente</t>
   </si>
@@ -45,21 +44,42 @@
     <t>Vencimento</t>
   </si>
   <si>
-    <t>Felipe Souza</t>
-  </si>
-  <si>
-    <t>5511942076509</t>
-  </si>
-  <si>
-    <t>Fabiana Letícia</t>
+    <t>DIA/MÊS/ANO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">telefone </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>completo</t>
+    </r>
+  </si>
+  <si>
+    <t>Nome da pessoa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -404,18 +424,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA27F53-524C-44C4-A845-1A63EBA291C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -431,30 +451,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>45445</v>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45447</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bot de cobranças/Cobranças.xlsx
+++ b/bot de cobranças/Cobranças.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
   <si>
     <t>Nome do Cliente</t>
   </si>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,11 +440,119 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
